--- a/ope.ed.gov/2006/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2006.xlsx
+++ b/ope.ed.gov/2006/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2006.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Criminal_Offenses_Public_Proper" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="criminal-offenses-public-proper" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Public Property</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -1453,52 +1450,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2006.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>679.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1509,13 +1548,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
         <v>679.0</v>
@@ -1527,22 +1566,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J3">
         <v>0.0</v>
       </c>
       <c s="1" r="K3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M3">
         <v>1.0</v>
       </c>
       <c s="1" r="N3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O3">
         <v>0.0</v>
@@ -1556,13 +1595,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
         <v>679.0</v>
@@ -1580,13 +1619,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L4">
         <v>0.0</v>
       </c>
       <c s="1" r="M4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N4">
         <v>0.0</v>
@@ -1600,19 +1639,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>679.0</v>
+        <v>702.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1650,13 +1689,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
         <v>702.0</v>
@@ -1694,19 +1733,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>702.0</v>
+        <v>3856.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -1744,13 +1783,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
         <v>3856.0</v>
@@ -1791,13 +1830,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
         <v>3856.0</v>
@@ -1838,13 +1877,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
         <v>3856.0</v>
@@ -1885,13 +1924,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
         <v>3856.0</v>
@@ -1932,13 +1971,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
         <v>3856.0</v>
@@ -1979,13 +2018,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
         <v>3856.0</v>
@@ -2026,13 +2065,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
         <v>3856.0</v>
@@ -2073,13 +2112,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
         <v>3856.0</v>
@@ -2120,13 +2159,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
         <v>3856.0</v>
@@ -2167,13 +2206,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
         <v>3856.0</v>
@@ -2211,19 +2250,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B18">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>3856.0</v>
+        <v>369.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -2258,19 +2297,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B19">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>369.0</v>
+        <v>989.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -2285,7 +2324,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K19">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L19">
         <v>0.0</v>
@@ -2305,19 +2344,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B20">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>989.0</v>
+        <v>2467.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -2352,19 +2391,16 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B21">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
-      </c>
-      <c s="1" r="F21">
-        <v>2467.0</v>
+        <v>54</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -2402,13 +2438,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -2423,7 +2459,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K22">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L22">
         <v>0.0</v>
@@ -2446,13 +2482,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -2487,16 +2523,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B24">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c s="1" r="F24">
+        <v>38.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -2531,19 +2570,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B25">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>38.0</v>
+        <v>184.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2578,19 +2617,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B26">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>184.0</v>
+        <v>115.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2625,19 +2664,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B27">
-        <v>445762.0</v>
+        <v>445595.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>115.0</v>
+        <v>375.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2672,19 +2711,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B28">
-        <v>445595.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>375.0</v>
+        <v>180.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2719,19 +2758,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B29">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2766,19 +2805,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>56.0</v>
+        <v>3979.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -2813,19 +2852,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>3979.0</v>
+        <v>840.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2843,7 +2882,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L31">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M31">
         <v>0.0</v>
@@ -2860,19 +2899,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>840.0</v>
+        <v>459.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2890,7 +2929,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L32">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M32">
         <v>0.0</v>
@@ -2907,19 +2946,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233356.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>459.0</v>
+        <v>1514.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -2954,19 +2993,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B34">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>1514.0</v>
+        <v>452.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -3001,19 +3040,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B35">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>452.0</v>
+        <v>463.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -3048,19 +3087,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B36">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>463.0</v>
+        <v>147.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -3095,19 +3134,16 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B37">
-        <v>441858.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
-      </c>
-      <c s="1" r="F37">
-        <v>147.0</v>
+        <v>86</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -3142,16 +3178,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B38">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c s="1" r="F38">
+        <v>4721.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -3189,13 +3228,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
         <v>4721.0</v>
@@ -3236,13 +3275,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
         <v>4721.0</v>
@@ -3283,13 +3322,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
         <v>4721.0</v>
@@ -3327,19 +3366,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B42">
-        <v>231697.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
-        <v>4721.0</v>
+        <v>294.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -3374,19 +3413,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B43">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
-        <v>294.0</v>
+        <v>299.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -3421,19 +3460,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B44">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
-        <v>299.0</v>
+        <v>548.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -3468,19 +3507,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B45">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>548.0</v>
+        <v>381.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -3515,19 +3554,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B46">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>381.0</v>
+        <v>264.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -3562,19 +3601,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B47">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>264.0</v>
+        <v>1224.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -3609,19 +3648,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B48">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
-        <v>1224.0</v>
+        <v>164.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -3645,7 +3684,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N48">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O48">
         <v>0.0</v>
@@ -3656,19 +3695,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B49">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
-        <v>164.0</v>
+        <v>4793.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -3677,7 +3716,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I49">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J49">
         <v>0.0</v>
@@ -3686,7 +3725,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L49">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M49">
         <v>0.0</v>
@@ -3695,7 +3734,7 @@
         <v>1.0</v>
       </c>
       <c s="1" r="O49">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -3703,19 +3742,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B50">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>4793.0</v>
+        <v>7709.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -3724,7 +3763,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I50">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J50">
         <v>0.0</v>
@@ -3733,7 +3772,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L50">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M50">
         <v>0.0</v>
@@ -3742,7 +3781,7 @@
         <v>1.0</v>
       </c>
       <c s="1" r="O50">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -3750,19 +3789,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B51">
-        <v>231624.0</v>
+        <v>377403.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>7709.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -3786,7 +3825,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N51">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O51">
         <v>0.0</v>
@@ -3797,19 +3836,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B52">
-        <v>377403.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -3844,19 +3883,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B53">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>30.0</v>
+        <v>1373.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -3891,19 +3930,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B54">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
-        <v>1373.0</v>
+        <v>3884.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -3938,19 +3977,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B55">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
-        <v>3884.0</v>
+        <v>121.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -3985,19 +4024,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B56">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
-        <v>121.0</v>
+        <v>674.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -4006,7 +4045,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I56">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J56">
         <v>0.0</v>
@@ -4015,7 +4054,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L56">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M56">
         <v>0.0</v>
@@ -4035,13 +4074,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D57">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F57">
         <v>674.0</v>
@@ -4053,7 +4092,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I57">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J57">
         <v>0.0</v>
@@ -4062,13 +4101,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L57">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M57">
         <v>0.0</v>
       </c>
       <c s="1" r="N57">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O57">
         <v>0.0</v>
@@ -4079,19 +4118,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B58">
-        <v>440536.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D58">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F58">
-        <v>674.0</v>
+        <v>1324.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -4115,7 +4154,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N58">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O58">
         <v>0.0</v>
@@ -4126,19 +4165,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B59">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F59">
-        <v>1324.0</v>
+        <v>835.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -4173,19 +4212,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B60">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F60">
-        <v>835.0</v>
+        <v>758.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -4220,19 +4259,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B61">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F61">
-        <v>758.0</v>
+        <v>972.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -4270,13 +4309,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D62">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F62">
         <v>972.0</v>
@@ -4314,19 +4353,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B63">
-        <v>248943.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D63">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F63">
-        <v>972.0</v>
+        <v>7016.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -4364,13 +4403,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D64">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F64">
         <v>7016.0</v>
@@ -4411,13 +4450,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D65">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F65">
         <v>7016.0</v>
@@ -4458,13 +4497,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D66">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F66">
         <v>7016.0</v>
@@ -4505,13 +4544,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D67">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F67">
         <v>7016.0</v>
@@ -4552,13 +4591,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D68">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F68">
         <v>7016.0</v>
@@ -4599,13 +4638,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D69">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F69">
         <v>7016.0</v>
@@ -4646,13 +4685,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D70">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F70">
         <v>7016.0</v>
@@ -4693,13 +4732,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D71">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F71">
         <v>7016.0</v>
@@ -4740,13 +4779,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D72">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F72">
         <v>7016.0</v>
@@ -4787,13 +4826,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D73">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F73">
         <v>7016.0</v>
@@ -4834,13 +4873,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D74">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F74">
         <v>7016.0</v>
@@ -4881,13 +4920,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D75">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F75">
         <v>7016.0</v>
@@ -4925,19 +4964,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B76">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D76">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F76">
-        <v>7016.0</v>
+        <v>607.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -4972,19 +5011,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B77">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F77">
-        <v>607.0</v>
+        <v>1051.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -5019,19 +5058,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B78">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F78">
-        <v>1051.0</v>
+        <v>72.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -5046,7 +5085,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K78">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L78">
         <v>0.0</v>
@@ -5066,19 +5105,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B79">
-        <v>444282.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D79">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F79">
-        <v>72.0</v>
+        <v>574.0</v>
       </c>
       <c s="1" r="G79">
         <v>0.0</v>
@@ -5093,7 +5132,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K79">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L79">
         <v>0.0</v>
@@ -5113,19 +5152,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B80">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D80">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F80">
-        <v>574.0</v>
+        <v>460.0</v>
       </c>
       <c s="1" r="G80">
         <v>0.0</v>
@@ -5160,19 +5199,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B81">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D81">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F81">
-        <v>460.0</v>
+        <v>402.0</v>
       </c>
       <c s="1" r="G81">
         <v>0.0</v>
@@ -5207,19 +5246,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B82">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D82">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F82">
-        <v>402.0</v>
+        <v>484.0</v>
       </c>
       <c s="1" r="G82">
         <v>0.0</v>
@@ -5254,19 +5293,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B83">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D83">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F83">
-        <v>484.0</v>
+        <v>1060.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
@@ -5301,19 +5340,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B84">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D84">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F84">
-        <v>1060.0</v>
+        <v>157.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
@@ -5348,19 +5387,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B85">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D85">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F85">
-        <v>157.0</v>
+        <v>79.0</v>
       </c>
       <c s="1" r="G85">
         <v>0.0</v>
@@ -5395,19 +5434,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B86">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D86">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F86">
-        <v>79.0</v>
+        <v>29889.0</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
@@ -5442,19 +5481,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B87">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D87">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F87">
-        <v>29889.0</v>
+        <v>5167.0</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -5492,13 +5531,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D88">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F88">
         <v>5167.0</v>
@@ -5536,19 +5575,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B89">
-        <v>232195.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D89">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F89">
-        <v>5167.0</v>
+        <v>215.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -5583,19 +5622,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B90">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F90">
-        <v>215.0</v>
+        <v>1108.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -5630,19 +5669,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B91">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F91">
-        <v>1108.0</v>
+        <v>6152.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -5660,7 +5699,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L91">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M91">
         <v>0.0</v>
@@ -5680,13 +5719,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D92">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F92">
         <v>6152.0</v>
@@ -5704,10 +5743,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K92">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L92">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M92">
         <v>0.0</v>
@@ -5727,13 +5766,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D93">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F93">
         <v>6152.0</v>
@@ -5751,10 +5790,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K93">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L93">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M93">
         <v>0.0</v>
@@ -5771,19 +5810,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B94">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D94">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F94">
-        <v>6152.0</v>
+        <v>89.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -5818,19 +5857,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B95">
-        <v>431266.0</v>
+        <v>233189.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F95">
-        <v>89.0</v>
+        <v>196.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -5865,19 +5904,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B96">
-        <v>233189.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F96">
-        <v>196.0</v>
+        <v>236.0</v>
       </c>
       <c s="1" r="G96">
         <v>0.0</v>
@@ -5886,13 +5925,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I96">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J96">
         <v>0.0</v>
       </c>
       <c s="1" r="K96">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L96">
         <v>0.0</v>
@@ -5912,19 +5951,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B97">
-        <v>377421.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F97">
-        <v>236.0</v>
+        <v>1061.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -5933,13 +5972,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I97">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J97">
         <v>0.0</v>
       </c>
       <c s="1" r="K97">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L97">
         <v>0.0</v>
@@ -5959,19 +5998,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B98">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D98">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F98">
-        <v>1061.0</v>
+        <v>43.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -5986,16 +6025,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K98">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L98">
         <v>0.0</v>
       </c>
       <c s="1" r="M98">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N98">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O98">
         <v>0.0</v>
@@ -6006,19 +6045,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B99">
-        <v>445869.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D99">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F99">
-        <v>43.0</v>
+        <v>352.0</v>
       </c>
       <c s="1" r="G99">
         <v>0.0</v>
@@ -6033,16 +6072,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K99">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L99">
         <v>0.0</v>
       </c>
       <c s="1" r="M99">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N99">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O99">
         <v>0.0</v>
@@ -6053,19 +6092,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B100">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D100">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F100">
-        <v>352.0</v>
+        <v>681.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -6100,19 +6139,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B101">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D101">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F101">
-        <v>681.0</v>
+        <v>531.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -6147,19 +6186,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B102">
-        <v>437051.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D102">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F102">
-        <v>531.0</v>
+        <v>440.0</v>
       </c>
       <c s="1" r="G102">
         <v>0.0</v>
@@ -6194,19 +6233,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B103">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D103">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F103">
-        <v>440.0</v>
+        <v>12213.0</v>
       </c>
       <c s="1" r="G103">
         <v>0.0</v>
@@ -6218,7 +6257,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="J103">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="K103">
         <v>0.0</v>
@@ -6227,10 +6266,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M103">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N103">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="O103">
         <v>0.0</v>
@@ -6244,13 +6283,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D104">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F104">
         <v>12213.0</v>
@@ -6265,7 +6304,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="J104">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K104">
         <v>0.0</v>
@@ -6274,10 +6313,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M104">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N104">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O104">
         <v>0.0</v>
@@ -6291,13 +6330,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D105">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F105">
         <v>12213.0</v>
@@ -6324,7 +6363,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N105">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O105">
         <v>0.0</v>
@@ -6335,19 +6374,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B106">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D106">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F106">
-        <v>12213.0</v>
+        <v>17393.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -6385,13 +6424,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D107">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F107">
         <v>17393.0</v>
@@ -6432,13 +6471,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D108">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F108">
         <v>17393.0</v>
@@ -6476,19 +6515,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B109">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D109">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F109">
-        <v>17393.0</v>
+        <v>921.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -6523,19 +6562,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B110">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F110">
-        <v>921.0</v>
+        <v>7165.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -6573,13 +6612,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D111">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F111">
         <v>7165.0</v>
@@ -6620,13 +6659,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D112">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F112">
         <v>7165.0</v>
@@ -6664,19 +6703,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B113">
-        <v>232450.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D113">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F113">
-        <v>7165.0</v>
+        <v>17798.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -6685,7 +6724,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I113">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J113">
         <v>0.0</v>
@@ -6711,19 +6750,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B114">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D114">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F114">
-        <v>17798.0</v>
+        <v>4479.0</v>
       </c>
       <c s="1" r="G114">
         <v>0.0</v>
@@ -6732,7 +6771,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I114">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J114">
         <v>0.0</v>
@@ -6741,7 +6780,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L114">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M114">
         <v>0.0</v>
@@ -6758,19 +6797,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B115">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D115">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F115">
-        <v>4479.0</v>
+        <v>5856.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
@@ -6788,7 +6827,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L115">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M115">
         <v>0.0</v>
@@ -6808,13 +6847,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D116">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F116">
         <v>5856.0</v>
@@ -6852,19 +6891,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B117">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D117">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F117">
-        <v>5856.0</v>
+        <v>2398.0</v>
       </c>
       <c s="1" r="G117">
         <v>0.0</v>
@@ -6873,7 +6912,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I117">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J117">
         <v>0.0</v>
@@ -6899,19 +6938,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B118">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D118">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F118">
-        <v>2398.0</v>
+        <v>187.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -6920,7 +6959,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I118">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J118">
         <v>0.0</v>
@@ -6946,19 +6985,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B119">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D119">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F119">
-        <v>187.0</v>
+        <v>1755.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -6993,19 +7032,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B120">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D120">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F120">
-        <v>1755.0</v>
+        <v>3593.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -7040,19 +7079,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B121">
-        <v>232706.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D121">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F121">
-        <v>3593.0</v>
+        <v>1379.0</v>
       </c>
       <c s="1" r="G121">
         <v>0.0</v>
@@ -7090,13 +7129,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D122">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F122">
         <v>1379.0</v>
@@ -7137,13 +7176,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D123">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F123">
         <v>1379.0</v>
@@ -7184,13 +7223,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D124">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F124">
         <v>1379.0</v>
@@ -7228,19 +7267,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B125">
-        <v>231642.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D125">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F125">
-        <v>1379.0</v>
+        <v>1250.0</v>
       </c>
       <c s="1" r="G125">
         <v>0.0</v>
@@ -7278,13 +7317,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D126">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F126">
         <v>1250.0</v>
@@ -7325,13 +7364,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D127">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F127">
         <v>1250.0</v>
@@ -7369,19 +7408,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B128">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D128">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F128">
-        <v>1250.0</v>
+        <v>298.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -7416,19 +7455,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B129">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F129">
-        <v>298.0</v>
+        <v>2956.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
@@ -7463,19 +7502,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B130">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D130">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F130">
-        <v>2956.0</v>
+        <v>4029.0</v>
       </c>
       <c s="1" r="G130">
         <v>0.0</v>
@@ -7510,19 +7549,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B131">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D131">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F131">
-        <v>4029.0</v>
+        <v>6238.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
@@ -7537,7 +7576,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K131">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L131">
         <v>0.0</v>
@@ -7557,19 +7596,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B132">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F132">
-        <v>6238.0</v>
+        <v>38166.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
@@ -7584,7 +7623,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K132">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L132">
         <v>0.0</v>
@@ -7607,13 +7646,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D133">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F133">
         <v>38166.0</v>
@@ -7631,7 +7670,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K133">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L133">
         <v>0.0</v>
@@ -7640,7 +7679,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N133">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O133">
         <v>0.0</v>
@@ -7654,13 +7693,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D134">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F134">
         <v>38166.0</v>
@@ -7678,7 +7717,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K134">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L134">
         <v>0.0</v>
@@ -7687,7 +7726,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N134">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O134">
         <v>0.0</v>
@@ -7701,13 +7740,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D135">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F135">
         <v>38166.0</v>
@@ -7748,13 +7787,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D136">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F136">
         <v>38166.0</v>
@@ -7795,13 +7834,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D137">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F137">
         <v>38166.0</v>
@@ -7839,19 +7878,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B138">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D138">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F138">
-        <v>38166.0</v>
+        <v>21625.0</v>
       </c>
       <c s="1" r="G138">
         <v>0.0</v>
@@ -7866,10 +7905,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K138">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="L138">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M138">
         <v>0.0</v>
@@ -7886,19 +7925,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B139">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D139">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F139">
-        <v>21625.0</v>
+        <v>2840.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -7913,10 +7952,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K139">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L139">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M139">
         <v>0.0</v>
@@ -7933,19 +7972,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B140">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F140">
-        <v>2840.0</v>
+        <v>1563.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -7983,13 +8022,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D141">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F141">
         <v>1563.0</v>
@@ -8027,19 +8066,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B142">
-        <v>233037.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D142">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F142">
-        <v>1563.0</v>
+        <v>4451.0</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
@@ -8074,19 +8113,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B143">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D143">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F143">
-        <v>4451.0</v>
+        <v>9220.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -8121,19 +8160,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B144">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D144">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F144">
-        <v>9220.0</v>
+        <v>715.0</v>
       </c>
       <c s="1" r="G144">
         <v>0.0</v>
@@ -8151,13 +8190,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L144">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M144">
         <v>0.0</v>
       </c>
       <c s="1" r="N144">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O144">
         <v>0.0</v>
@@ -8168,19 +8207,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B145">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D145">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F145">
-        <v>715.0</v>
+        <v>1146.0</v>
       </c>
       <c s="1" r="G145">
         <v>0.0</v>
@@ -8198,13 +8237,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L145">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M145">
         <v>0.0</v>
       </c>
       <c s="1" r="N145">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O145">
         <v>0.0</v>
@@ -8215,19 +8254,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B146">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D146">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F146">
-        <v>1146.0</v>
+        <v>2930.0</v>
       </c>
       <c s="1" r="G146">
         <v>0.0</v>
@@ -8265,13 +8304,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D147">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F147">
         <v>2930.0</v>
@@ -8309,19 +8348,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B148">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D148">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F148">
-        <v>2930.0</v>
+        <v>4080.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -8359,13 +8398,13 @@
         <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D149">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F149">
         <v>4080.0</v>
@@ -8403,19 +8442,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B150">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D150">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F150">
-        <v>4080.0</v>
+        <v>1374.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
@@ -8450,19 +8489,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B151">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D151">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F151">
-        <v>1374.0</v>
+        <v>407.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -8497,19 +8536,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B152">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D152">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F152">
-        <v>407.0</v>
+        <v>168.0</v>
       </c>
       <c s="1" r="G152">
         <v>0.0</v>
@@ -8544,19 +8583,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B153">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D153">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F153">
-        <v>168.0</v>
+        <v>1970.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -8591,19 +8630,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B154">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F154">
-        <v>1970.0</v>
+        <v>135.0</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
@@ -8638,19 +8677,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B155">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F155">
-        <v>135.0</v>
+        <v>681.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
@@ -8685,19 +8724,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F156">
-        <v>681.0</v>
+        <v>565.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -8732,19 +8771,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B157">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F157">
-        <v>565.0</v>
+        <v>236.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -8779,19 +8818,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B158">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F158">
-        <v>236.0</v>
+        <v>3107.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
@@ -8809,13 +8848,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L158">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M158">
         <v>0.0</v>
       </c>
       <c s="1" r="N158">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O158">
         <v>0.0</v>
@@ -8826,19 +8865,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B159">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D159">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F159">
-        <v>3107.0</v>
+        <v>362.0</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -8856,13 +8895,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L159">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M159">
         <v>0.0</v>
       </c>
       <c s="1" r="N159">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O159">
         <v>0.0</v>
@@ -8873,19 +8912,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B160">
-        <v>261931.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F160">
-        <v>362.0</v>
+        <v>748.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -8920,19 +8959,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B161">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F161">
-        <v>748.0</v>
+        <v>168.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -8967,19 +9006,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B162">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F162">
-        <v>168.0</v>
+        <v>5162.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -9014,19 +9053,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B163">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F163">
-        <v>5162.0</v>
+        <v>3580.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -9061,19 +9100,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B164">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F164">
-        <v>3580.0</v>
+        <v>94.0</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -9108,19 +9147,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B165">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F165">
-        <v>94.0</v>
+        <v>42.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -9155,19 +9194,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B166">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F166">
-        <v>42.0</v>
+        <v>560.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -9202,19 +9241,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B167">
-        <v>438498.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F167">
-        <v>560.0</v>
+        <v>45.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -9249,19 +9288,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B168">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F168">
-        <v>45.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -9296,19 +9335,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B169">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F169">
-        <v>11.0</v>
+        <v>751.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -9343,19 +9382,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B170">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F170">
-        <v>751.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -9373,13 +9412,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L170">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M170">
         <v>0.0</v>
       </c>
       <c s="1" r="N170">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O170">
         <v>0.0</v>
@@ -9390,19 +9429,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B171">
-        <v>233286.0</v>
+        <v>444884.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F171">
-        <v>31.0</v>
+        <v>16.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -9420,13 +9459,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L171">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M171">
         <v>0.0</v>
       </c>
       <c s="1" r="N171">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O171">
         <v>0.0</v>
@@ -9437,19 +9476,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B172">
-        <v>444884.0</v>
+        <v>248970.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F172">
-        <v>16.0</v>
+        <v>289.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -9484,19 +9523,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B173">
-        <v>248970.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F173">
-        <v>289.0</v>
+        <v>1361.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -9531,19 +9570,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B174">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F174">
-        <v>1361.0</v>
+        <v>2043.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -9578,19 +9617,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B175">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F175">
-        <v>2043.0</v>
+        <v>9718.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -9614,7 +9653,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N175">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O175">
         <v>0.0</v>
@@ -9625,19 +9664,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B176">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F176">
-        <v>9718.0</v>
+        <v>24938.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
@@ -9652,16 +9691,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K176">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="L176">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M176">
         <v>0.0</v>
       </c>
       <c s="1" r="N176">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="O176">
         <v>0.0</v>
@@ -9675,13 +9714,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D177">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F177">
         <v>24938.0</v>
@@ -9699,16 +9738,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K177">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L177">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M177">
         <v>0.0</v>
       </c>
       <c s="1" r="N177">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O177">
         <v>0.0</v>
@@ -9722,13 +9761,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D178">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F178">
         <v>24938.0</v>
@@ -9769,13 +9808,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D179">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F179">
         <v>24938.0</v>
@@ -9802,7 +9841,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N179">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O179">
         <v>0.0</v>
@@ -9816,13 +9855,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D180">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F180">
         <v>24938.0</v>
@@ -9849,7 +9888,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N180">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O180">
         <v>0.0</v>
@@ -9860,19 +9899,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B181">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D181">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F181">
-        <v>24938.0</v>
+        <v>37.0</v>
       </c>
       <c s="1" r="G181">
         <v>0.0</v>
@@ -9907,19 +9946,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B182">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D182">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F182">
-        <v>37.0</v>
+        <v>365.0</v>
       </c>
       <c s="1" r="G182">
         <v>0.0</v>
@@ -9937,7 +9976,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L182">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M182">
         <v>0.0</v>
@@ -9957,13 +9996,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D183">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F183">
         <v>365.0</v>
@@ -9984,7 +10023,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L183">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M183">
         <v>0.0</v>
@@ -10001,19 +10040,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B184">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D184">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F184">
-        <v>365.0</v>
+        <v>4862.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -10048,19 +10087,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B185">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D185">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F185">
-        <v>4862.0</v>
+        <v>935.0</v>
       </c>
       <c s="1" r="G185">
         <v>0.0</v>
@@ -10075,7 +10114,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K185">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L185">
         <v>0.0</v>
@@ -10084,7 +10123,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N185">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O185">
         <v>0.0</v>
@@ -10095,19 +10134,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B186">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D186">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F186">
-        <v>935.0</v>
+        <v>348.0</v>
       </c>
       <c s="1" r="G186">
         <v>0.0</v>
@@ -10122,7 +10161,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K186">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L186">
         <v>0.0</v>
@@ -10131,7 +10170,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N186">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O186">
         <v>0.0</v>
@@ -10142,19 +10181,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B187">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D187">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F187">
-        <v>348.0</v>
+        <v>4496.0</v>
       </c>
       <c s="1" r="G187">
         <v>0.0</v>
@@ -10189,19 +10228,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B188">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D188">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F188">
-        <v>4496.0</v>
+        <v>67.0</v>
       </c>
       <c s="1" r="G188">
         <v>0.0</v>
@@ -10219,13 +10258,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L188">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M188">
         <v>0.0</v>
       </c>
       <c s="1" r="N188">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O188">
         <v>0.0</v>
@@ -10236,19 +10275,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B189">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F189">
-        <v>67.0</v>
+        <v>24068.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
@@ -10257,22 +10296,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I189">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J189">
         <v>0.0</v>
       </c>
       <c s="1" r="K189">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L189">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M189">
         <v>0.0</v>
       </c>
       <c s="1" r="N189">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="O189">
         <v>0.0</v>
@@ -10286,13 +10325,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D190">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F190">
         <v>24068.0</v>
@@ -10304,13 +10343,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I190">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J190">
         <v>0.0</v>
       </c>
       <c s="1" r="K190">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L190">
         <v>0.0</v>
@@ -10319,7 +10358,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N190">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O190">
         <v>0.0</v>
@@ -10333,13 +10372,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D191">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F191">
         <v>24068.0</v>
@@ -10351,22 +10390,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I191">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J191">
         <v>0.0</v>
       </c>
       <c s="1" r="K191">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L191">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M191">
         <v>0.0</v>
       </c>
       <c s="1" r="N191">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="O191">
         <v>0.0</v>
@@ -10380,13 +10419,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D192">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F192">
         <v>24068.0</v>
@@ -10398,22 +10437,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I192">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J192">
         <v>0.0</v>
       </c>
       <c s="1" r="K192">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L192">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M192">
         <v>0.0</v>
       </c>
       <c s="1" r="N192">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O192">
         <v>0.0</v>
@@ -10427,13 +10466,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D193">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F193">
         <v>24068.0</v>
@@ -10474,13 +10513,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D194">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F194">
         <v>24068.0</v>
@@ -10518,19 +10557,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B195">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D195">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F195">
-        <v>24068.0</v>
+        <v>25.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
@@ -10565,19 +10604,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B196">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D196">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F196">
-        <v>25.0</v>
+        <v>30189.0</v>
       </c>
       <c s="1" r="G196">
         <v>0.0</v>
@@ -10586,22 +10625,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I196">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J196">
         <v>0.0</v>
       </c>
       <c s="1" r="K196">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c s="1" r="L196">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="M196">
         <v>0.0</v>
       </c>
       <c s="1" r="N196">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O196">
         <v>0.0</v>
@@ -10615,13 +10654,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D197">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F197">
         <v>30189.0</v>
@@ -10633,16 +10672,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I197">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J197">
         <v>0.0</v>
       </c>
       <c s="1" r="K197">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L197">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="M197">
         <v>0.0</v>
@@ -10659,19 +10698,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B198">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D198">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F198">
-        <v>30189.0</v>
+        <v>2431.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -10680,22 +10719,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I198">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J198">
         <v>0.0</v>
       </c>
       <c s="1" r="K198">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L198">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M198">
         <v>0.0</v>
       </c>
       <c s="1" r="N198">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O198">
         <v>0.0</v>
@@ -10706,19 +10745,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B199">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F199">
-        <v>2431.0</v>
+        <v>872.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -10742,7 +10781,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N199">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O199">
         <v>0.0</v>
@@ -10753,19 +10792,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B200">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D200">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F200">
-        <v>872.0</v>
+        <v>1397.0</v>
       </c>
       <c s="1" r="G200">
         <v>0.0</v>
@@ -10789,7 +10828,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N200">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O200">
         <v>0.0</v>
@@ -10800,22 +10839,22 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B201">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D201">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F201">
-        <v>1397.0</v>
+        <v>28470.0</v>
       </c>
       <c s="1" r="G201">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H201">
         <v>0.0</v>
@@ -10839,7 +10878,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O201">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="202">
@@ -10850,19 +10889,19 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D202">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F202">
         <v>28470.0</v>
       </c>
       <c s="1" r="G202">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H202">
         <v>0.0</v>
@@ -10886,7 +10925,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O202">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="203">
@@ -10897,13 +10936,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D203">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F203">
         <v>28470.0</v>
@@ -10944,13 +10983,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D204">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F204">
         <v>28470.0</v>
@@ -10991,13 +11030,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D205">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F205">
         <v>28470.0</v>
@@ -11024,7 +11063,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N205">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O205">
         <v>0.0</v>
@@ -11038,13 +11077,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D206">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F206">
         <v>28470.0</v>
@@ -11071,7 +11110,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N206">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O206">
         <v>0.0</v>
@@ -11085,13 +11124,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D207">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F207">
         <v>28470.0</v>
@@ -11132,13 +11171,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D208">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F208">
         <v>28470.0</v>
@@ -11176,19 +11215,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B209">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D209">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F209">
-        <v>28470.0</v>
+        <v>109.0</v>
       </c>
       <c s="1" r="G209">
         <v>0.0</v>
@@ -11223,19 +11262,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B210">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D210">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F210">
-        <v>109.0</v>
+        <v>162.0</v>
       </c>
       <c s="1" r="G210">
         <v>0.0</v>
@@ -11250,7 +11289,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K210">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L210">
         <v>0.0</v>
@@ -11259,7 +11298,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N210">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O210">
         <v>0.0</v>
@@ -11270,19 +11309,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B211">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D211">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F211">
-        <v>162.0</v>
+        <v>4872.0</v>
       </c>
       <c s="1" r="G211">
         <v>0.0</v>
@@ -11300,13 +11339,13 @@
         <v>1.0</v>
       </c>
       <c s="1" r="L211">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M211">
         <v>0.0</v>
       </c>
       <c s="1" r="N211">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O211">
         <v>0.0</v>
@@ -11317,19 +11356,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B212">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D212">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F212">
-        <v>4872.0</v>
+        <v>1599.0</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -11344,16 +11383,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K212">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L212">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M212">
         <v>0.0</v>
       </c>
       <c s="1" r="N212">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O212">
         <v>0.0</v>
@@ -11364,19 +11403,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B213">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F213">
-        <v>1599.0</v>
+        <v>178.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -11411,19 +11450,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B214">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F214">
-        <v>178.0</v>
+        <v>1417.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
@@ -11458,19 +11497,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B215">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F215">
-        <v>1417.0</v>
+        <v>8365.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -11505,19 +11544,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B216">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F216">
-        <v>8365.0</v>
+        <v>99.0</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -11552,19 +11591,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B217">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F217">
-        <v>99.0</v>
+        <v>51.0</v>
       </c>
       <c s="1" r="G217">
         <v>0.0</v>
@@ -11599,19 +11638,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B218">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F218">
-        <v>51.0</v>
+        <v>2149.0</v>
       </c>
       <c s="1" r="G218">
         <v>0.0</v>
@@ -11646,19 +11685,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B219">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F219">
-        <v>2149.0</v>
+        <v>77.0</v>
       </c>
       <c s="1" r="G219">
         <v>0.0</v>
@@ -11693,19 +11732,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B220">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D220">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F220">
-        <v>77.0</v>
+        <v>137.0</v>
       </c>
       <c s="1" r="G220">
         <v>0.0</v>
@@ -11740,19 +11779,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B221">
-        <v>448628.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D221">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F221">
-        <v>137.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G221">
         <v>0.0</v>
@@ -11787,19 +11826,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B222">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D222">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F222">
-        <v>245.0</v>
+        <v>2880.0</v>
       </c>
       <c s="1" r="G222">
         <v>0.0</v>
@@ -11826,53 +11865,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O222">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c s="1" r="A223">
-        <v>2006.0</v>
-      </c>
-      <c s="1" r="B223">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C223">
-        <v>456</v>
-      </c>
-      <c s="1" r="D223">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E223">
-        <v>457</v>
-      </c>
-      <c s="1" r="F223">
-        <v>2880.0</v>
-      </c>
-      <c s="1" r="G223">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H223">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I223">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J223">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K223">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L223">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M223">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N223">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O223">
         <v>0.0</v>
       </c>
     </row>
